--- a/PlanDeTest.xlsx
+++ b/PlanDeTest.xlsx
@@ -16,22 +16,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Description</t>
   </si>
   <si>
     <t>Résultat attendu</t>
+  </si>
+  <si>
+    <t>Résultat</t>
+  </si>
+  <si>
+    <t>N° test</t>
+  </si>
+  <si>
+    <t>Aller dans menu fichier -&gt; ouvrir</t>
+  </si>
+  <si>
+    <t>Une fenêtre de selection de fichier apparait</t>
+  </si>
+  <si>
+    <t>Ouvrir le fichier sample.dll fournit dans le dossier parent de la solution</t>
+  </si>
+  <si>
+    <t>La première picture box se remplit avec des données hexadéc imales et la deuxième picture box se remplit avec les valeurs ASCII</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Le curseur se décale d'une case vers le bas</t>
+  </si>
+  <si>
+    <t>Le curseur n'est pas sur la dernière ligne d'une page, ni sur la dernière ligne du fichier. On appuye sur "bas".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -45,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -53,15 +96,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Titre 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Titre 3" xfId="2" builtinId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -360,28 +433,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
